--- a/dados/exercicio3.xlsx
+++ b/dados/exercicio3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,368 +360,83 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>salarios</t>
+          <t>Filhos</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Freq</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fr</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Fac</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Xi.Fi</t>
+          <t>Famílias</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>5.25</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>&gt;5</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>5.73</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>6.26</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>6.66</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>6.86</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>7.39</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>7.39</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7.44</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>7.44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>7.59</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>8.119999999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>8.460000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>8.74</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>12</v>
-      </c>
-      <c r="E13">
-        <v>8.949999999999999</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>9.130000000000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>9.35</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>9.35</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>9.77</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>9.77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>10.53</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>10.76</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <v>11.06</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21">
-        <v>11.59</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>11.59</v>
       </c>
     </row>
   </sheetData>
